--- a/Database/master data.xlsx
+++ b/Database/master data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="DEPARTMENTS" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>ABILITY_NAME</t>
   </si>
   <si>
-    <t>UNIT_FK</t>
-  </si>
-  <si>
     <t>DEPARTMENT_FK</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>LOOKUP DEPARTMENT_NAME</t>
   </si>
   <si>
-    <t>LOOKUP UNIT_NAME</t>
-  </si>
-  <si>
     <t>İYİ</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>PK</t>
+  </si>
+  <si>
+    <t>STATE_ORDER</t>
+  </si>
+  <si>
+    <t>STARTED</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -340,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,48 +666,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>100</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>105</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>105</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>110</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -737,141 +734,141 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1000</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
         <v>100</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="5" t="str">
         <f>VLOOKUP(C4,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>İNSAN KAYNAKLARI DEPARTMANI</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1050</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5">
         <v>100</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="5" t="str">
         <f>VLOOKUP(C5,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>İNSAN KAYNAKLARI DEPARTMANI</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1100</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5">
         <v>105</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="5" t="str">
         <f>VLOOKUP(C6,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1150</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5">
         <v>105</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="5" t="str">
         <f>VLOOKUP(C7,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1200</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5">
         <v>110</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="5" t="str">
         <f>VLOOKUP(C8,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>MUHASEBE DEPARTMANI</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>1250</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5">
         <v>110</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="5" t="str">
         <f>VLOOKUP(C9,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>MUHASEBE DEPARTMANI</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>1300</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="5">
         <v>105</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="5" t="str">
         <f>VLOOKUP(C10,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
       </c>
@@ -883,347 +880,152 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>10000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="e">
-        <f>VLOOKUP(C4,UNITS!$A$4:$B$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="6" t="e">
-        <f>VLOOKUP(D4,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <f>A4+500</f>
         <v>10500</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="e">
-        <f>VLOOKUP(C5,UNITS!$A$4:$B$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="6" t="e">
-        <f>VLOOKUP(D5,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <f t="shared" ref="A6:A15" si="0">A5+500</f>
         <v>11000</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
-        <v>100</v>
-      </c>
-      <c r="E6" s="6" t="e">
-        <f>VLOOKUP(C6,UNITS!$A$4:$B$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="6" t="str">
-        <f>VLOOKUP(D6,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>İNSAN KAYNAKLARI DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>105</v>
-      </c>
-      <c r="E7" s="6" t="e">
-        <f>VLOOKUP(C7,UNITS!$A$4:$B$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F7" s="6" t="str">
-        <f>VLOOKUP(D7,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>16000</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>110</v>
-      </c>
-      <c r="E8" s="6" t="e">
-        <f>VLOOKUP(C8,UNITS!$A$4:$B$10,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F8" s="6" t="str">
-        <f>VLOOKUP(D8,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>MUHASEBE DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <f>A7+500</f>
         <v>12000</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1300</v>
-      </c>
-      <c r="D9" s="6">
-        <v>105</v>
-      </c>
-      <c r="E9" s="6" t="str">
-        <f>VLOOKUP(C9,UNITS!$A$4:$B$10,2,0)</f>
-        <v>İŞ ZEKASI BİRİMİ</v>
-      </c>
-      <c r="F9" s="6" t="str">
-        <f>VLOOKUP(D9,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>105</v>
-      </c>
-      <c r="E10" s="6" t="str">
-        <f>VLOOKUP(C10,UNITS!$A$4:$B$10,2,0)</f>
-        <v>YAZILIM BİRİMİ</v>
-      </c>
-      <c r="F10" s="6" t="str">
-        <f>VLOOKUP(D10,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1050</v>
-      </c>
-      <c r="D11" s="6">
-        <v>105</v>
-      </c>
-      <c r="E11" s="6" t="str">
-        <f>VLOOKUP(C11,UNITS!$A$4:$B$10,2,0)</f>
-        <v>NETWORK BİRİMİ</v>
-      </c>
-      <c r="F11" s="6" t="str">
-        <f>VLOOKUP(D11,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>13500</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1150</v>
-      </c>
-      <c r="D12" s="6">
-        <v>110</v>
-      </c>
-      <c r="E12" s="6" t="str">
-        <f>VLOOKUP(C12,UNITS!$A$4:$B$10,2,0)</f>
-        <v>PERFORMANS DEĞERLENDİRME BİRİMİ</v>
-      </c>
-      <c r="F12" s="6" t="str">
-        <f>VLOOKUP(D12,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>MUHASEBE DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="6">
-        <v>110</v>
-      </c>
-      <c r="E13" s="6" t="str">
-        <f>VLOOKUP(C13,UNITS!$A$4:$B$10,2,0)</f>
-        <v>GELİR-GİDER BİRİMİ</v>
-      </c>
-      <c r="F13" s="6" t="str">
-        <f>VLOOKUP(D13,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>MUHASEBE DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1250</v>
-      </c>
-      <c r="D14" s="6">
-        <v>110</v>
-      </c>
-      <c r="E14" s="6" t="str">
-        <f>VLOOKUP(C14,UNITS!$A$4:$B$10,2,0)</f>
-        <v>BÜTÇE RAPORLAMA BİRİMİ</v>
-      </c>
-      <c r="F14" s="6" t="str">
-        <f>VLOOKUP(D14,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>MUHASEBE DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="B14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="6">
-        <v>105</v>
-      </c>
-      <c r="E15" s="6" t="str">
-        <f>VLOOKUP(C15,UNITS!$A$4:$B$10,2,0)</f>
-        <v>YAZILIM BİRİMİ</v>
-      </c>
-      <c r="F15" s="6" t="str">
-        <f>VLOOKUP(D15,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15500</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D16" s="6">
-        <v>105</v>
-      </c>
-      <c r="E16" s="6" t="str">
-        <f>VLOOKUP(C16,UNITS!$A$4:$B$10,2,0)</f>
-        <v>YAZILIM BİRİMİ</v>
-      </c>
-      <c r="F16" s="6" t="str">
-        <f>VLOOKUP(D16,DEPARTMENTS!$A$4:$B$6,2,0)</f>
-        <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1235,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1049,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1255,10 +1057,10 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,203 +1068,203 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>17</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>18</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>22</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>70</v>
+      <c r="B28" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1486,18 +1288,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1505,43 +1307,43 @@
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1551,60 +1353,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>74</v>
+      <c r="C7" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Database/master data.xlsx
+++ b/Database/master data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DEPARTMENTS" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="83">
   <si>
     <t>ABILITY_NAME</t>
   </si>
@@ -183,42 +183,9 @@
     <t>FROM 10000 TO 99999*</t>
   </si>
   <si>
-    <t>GENEL MÜDÜR YARDIMCISI</t>
-  </si>
-  <si>
-    <t>İNSAN KAYNAKLARI DEPARTMANI MÜDÜRÜ</t>
-  </si>
-  <si>
-    <t>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI MÜDÜRÜ</t>
-  </si>
-  <si>
-    <t>İŞ ZEKASI BİRİMİ YÖNETİCİSİ</t>
-  </si>
-  <si>
-    <t>YAZILIM BİRİMİ YÖNETİCİSİ</t>
-  </si>
-  <si>
-    <t>NETWORK BİRİMİ YÖNETİCİSİ</t>
-  </si>
-  <si>
-    <t>PERFORMANS DEĞERLENDİRME BİRİM YÖNETİCİSİ</t>
-  </si>
-  <si>
-    <t>GELİR-GİDER BİRİMİ YÖNETİCİSİ</t>
-  </si>
-  <si>
-    <t>BÜTÇE RAPORLAMA BİRİMİ YÖNETİCİSİ</t>
-  </si>
-  <si>
-    <t>UZMAN YAZILIMCI</t>
-  </si>
-  <si>
     <t>YAZILIMCI</t>
   </si>
   <si>
-    <t>MUHASEBE DEPARTMANI MÜDÜRÜ</t>
-  </si>
-  <si>
     <t>İŞ ZEKASI BİRİMİ</t>
   </si>
   <si>
@@ -247,6 +214,60 @@
   </si>
   <si>
     <t>STARTED</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_DEPARTMENT(PK,DEPARTMENT_NAME) VALUES(</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(</t>
+  </si>
+  <si>
+    <t>MÜDÜR</t>
+  </si>
+  <si>
+    <t>YÖNETİCİ</t>
+  </si>
+  <si>
+    <t>MUHASEBECİ</t>
+  </si>
+  <si>
+    <t>YAZILIM UZMANI</t>
+  </si>
+  <si>
+    <t>ANALİST</t>
+  </si>
+  <si>
+    <t>ANALİZ UZMANI</t>
+  </si>
+  <si>
+    <t>BÜTÇECİ</t>
+  </si>
+  <si>
+    <t>VERİ TABANI UZMANI</t>
+  </si>
+  <si>
+    <t>SİSTEM YÖNETİCİSİ</t>
+  </si>
+  <si>
+    <t>TASARIMCI</t>
+  </si>
+  <si>
+    <t>NETWORK UZMANI</t>
+  </si>
+  <si>
+    <t>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(</t>
   </si>
 </sst>
 </file>
@@ -331,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -348,6 +369,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,19 +674,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="7" max="7" width="94.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -672,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -680,34 +704,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="str">
+        <f>C4&amp;A4&amp;E4&amp;D4&amp;B4&amp;D4&amp;F4</f>
+        <v>INSERT INTO T_DEPARTMENT(PK,DEPARTMENT_NAME) VALUES(100,'İNSAN KAYNAKLARI DEPARTMANI');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>105</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G6" si="0">C5&amp;A5&amp;E5&amp;D5&amp;B5&amp;D5&amp;F5</f>
+        <v>INSERT INTO T_DEPARTMENT(PK,DEPARTMENT_NAME) VALUES(105,'BİLİŞİM TEKNOLOJİLERİ DEPARTMANI');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>110</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_DEPARTMENT(PK,DEPARTMENT_NAME) VALUES(110,'MUHASEBE DEPARTMANI');</v>
       </c>
     </row>
   </sheetData>
@@ -718,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,10 +801,12 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -746,7 +820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -758,7 +832,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -768,7 +842,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1000</v>
       </c>
@@ -782,8 +856,24 @@
         <f>VLOOKUP(C4,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>İNSAN KAYNAKLARI DEPARTMANI</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="str">
+        <f>E4&amp;A4&amp;G4&amp;F4&amp;B4&amp;F4&amp;G4&amp;C4&amp;H4</f>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1000,'YAZILIM BİRİMİ',100);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1050</v>
       </c>
@@ -797,8 +887,24 @@
         <f>VLOOKUP(C5,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>İNSAN KAYNAKLARI DEPARTMANI</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I10" si="0">E5&amp;A5&amp;G5&amp;F5&amp;B5&amp;F5&amp;G5&amp;C5&amp;H5</f>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1050,'NETWORK BİRİMİ',100);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1100</v>
       </c>
@@ -812,8 +918,24 @@
         <f>VLOOKUP(C6,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1100,'İŞE ALMA BİRİMİ',105);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>1150</v>
       </c>
@@ -827,8 +949,24 @@
         <f>VLOOKUP(C7,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1150,'PERFORMANS DEĞERLENDİRME BİRİMİ',105);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>1200</v>
       </c>
@@ -842,8 +980,24 @@
         <f>VLOOKUP(C8,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>MUHASEBE DEPARTMANI</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1200,'GELİR-GİDER BİRİMİ',110);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1250</v>
       </c>
@@ -857,13 +1011,29 @@
         <f>VLOOKUP(C9,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>MUHASEBE DEPARTMANI</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1250,'BÜTÇE RAPORLAMA BİRİMİ',110);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1300</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5">
         <v>105</v>
@@ -871,6 +1041,22 @@
       <c r="D10" s="5" t="str">
         <f>VLOOKUP(C10,DEPARTMENTS!$A$4:$B$6,2,0)</f>
         <v>BİLİŞİM TEKNOLOJİLERİ DEPARTMANI</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_UNIT(PK,UNIT_NAME,DEPARTMENT_FK) VALUES(1300,'İŞ ZEKASI BİRİMİ',105);</v>
       </c>
     </row>
   </sheetData>
@@ -880,19 +1066,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -900,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -908,124 +1095,332 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>10000</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="str">
+        <f>C4&amp;A4&amp;E4&amp;D4&amp;B4&amp;D4&amp;F4</f>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(10000,'GENEL MÜDÜR');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>A4+500</f>
         <v>10500</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G16" si="0">C5&amp;A5&amp;E5&amp;D5&amp;B5&amp;D5&amp;F5</f>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(10500,'MÜDÜR');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A15" si="1">A5+500</f>
+        <v>11000</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(11000,'YÖNETİCİ');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f t="shared" si="1"/>
+        <v>11500</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <f t="shared" ref="A6:A15" si="0">A5+500</f>
-        <v>11000</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <f t="shared" si="0"/>
-        <v>11500</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(11500,'YAZILIMCI');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>16000</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(16000,'MUHASEBECİ');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f>A7+500</f>
         <v>12000</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(12000,'YAZILIM UZMANI');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12500</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(12500,'ANALİST');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13000</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(13000,'ANALİZ UZMANI');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13500</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(13500,'BÜTÇECİ');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14000</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(14000,'VERİ TABANI UZMANI');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14500</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(14500,'SİSTEM YÖNETİCİSİ');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(15000,'TASARIMCI');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15500</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ROLE(PK,ROLE_NAME) VALUES(15500,'NETWORK UZMANI');</v>
       </c>
     </row>
   </sheetData>
@@ -1035,27 +1430,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1063,208 +1460,608 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="str">
+        <f>C4&amp;A4&amp;E4&amp;D4&amp;B4&amp;D4&amp;F4</f>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(1,'JAVA');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G28" si="0">C5&amp;A5&amp;E5&amp;D5&amp;B5&amp;D5&amp;F5</f>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(2,'JAVASCRIPT');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(3,'PHP');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(4,'HTML');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(5,'CSS');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(6,'AJAX');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(7,'C#');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(8,'C++');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(9,'C');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(10,'ASP.NET');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(11,'.NET');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(12,'PYTHON');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(13,'RUBY');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(14,'XML');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(15,'OBJECTIVE-C');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(16,'ANDROID');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(17,'IOS');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(18,'NODE.JS');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(19,'ANGULAR.JS');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(20,'ORACLE');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(21,'SQL');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(22,'MYSQL');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(23,'PL/SQL');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(24,'MS EXCEL');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO T_ABILITY(PK,ABILITY_NAME) VALUES(25,'MS WORD');</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -1368,13 +2165,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -1409,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7">
         <v>2</v>
@@ -1420,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -1431,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C7" s="7">
         <v>4</v>
